--- a/Docs/Datos experimento.xlsx
+++ b/Docs/Datos experimento.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="20">
   <si>
     <t>Num. Tratamiento</t>
   </si>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -97,6 +97,9 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="3">
@@ -163,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -176,17 +179,17 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="255" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -206,13 +209,13 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -220,6 +223,27 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="255" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -466,10 +490,10 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -487,7 +511,7 @@
       <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -495,26 +519,26 @@
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="2">
         <v>1.0</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="11">
         <v>10000.0</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>SUM(Sheet2!C2:C13)/(COUNT(Sheet2!B2:B13))</f>
         <v>0.03555</v>
       </c>
@@ -525,26 +549,26 @@
     </row>
     <row r="5">
       <c r="B5" s="13"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="2">
         <v>2.0</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="11">
         <v>10000.0</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>sum(Sheet2!C14:C24)/count(Sheet2!B14:B23)</f>
         <v>0.03516</v>
       </c>
@@ -557,26 +581,26 @@
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="2">
         <v>3.0</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="11">
         <v>100000.0</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>sum(Sheet2!C25:C35)/count(Sheet2!B25:B35)</f>
         <v>0.04141818182</v>
       </c>
@@ -587,26 +611,26 @@
     </row>
     <row r="7">
       <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="2">
         <v>4.0</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="11">
         <v>100000.0</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f>sum(Sheet2!C36:C46)/count(Sheet2!B36:B46)</f>
         <v>0.03461818182</v>
       </c>
@@ -617,26 +641,26 @@
     </row>
     <row r="8">
       <c r="B8" s="13"/>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="2">
         <v>5.0</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="11">
         <v>1000000.0</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f>sum(Sheet2!C47:C56)/count(Sheet2!B47:B56)</f>
         <v>5.25916</v>
       </c>
@@ -656,19 +680,19 @@
       <c r="E9" s="2">
         <v>6.0</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="11">
         <v>1000000.0</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f>sum(Sheet2!C58:C68)/count(Sheet2!B58:B68)</f>
         <v>5.027909091</v>
       </c>
@@ -686,19 +710,19 @@
       <c r="E10" s="2">
         <v>7.0</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="11">
         <v>10000.0</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <f>sum(Sheet2!C69:C79)/count(Sheet2!B69:B79)</f>
         <v>0.143</v>
       </c>
@@ -716,19 +740,19 @@
       <c r="E11" s="2">
         <v>8.0</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="11">
         <v>10000.0</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <f>sum(Sheet2!C80:C90)/count(Sheet2!B80:B90)</f>
         <v>0.1265</v>
       </c>
@@ -741,26 +765,26 @@
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="2">
         <v>9.0</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="11">
         <v>100000.0</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <f>sum(Sheet2!C91:C101)/count(Sheet2!B91:B101)</f>
         <v>0.1099090909</v>
       </c>
@@ -771,26 +795,26 @@
     </row>
     <row r="13">
       <c r="B13" s="13"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2">
         <v>10.0</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="11">
         <v>100000.0</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f>sum(Sheet2!C102:C112)/count(Sheet2!B102:B112)</f>
         <v>0.05249090909</v>
       </c>
@@ -804,19 +828,19 @@
       <c r="E14" s="2">
         <v>11.0</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="11">
         <v>1000000.0</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <f>sum(Sheet2!C113:C123)/count(Sheet2!B113:B123)</f>
         <v>19.59690909</v>
       </c>
@@ -830,19 +854,19 @@
       <c r="E15" s="2">
         <v>12.0</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="11">
         <v>1000000.0</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <f>sum(Sheet2!C124:C134)/count(Sheet2!B124:B134)</f>
         <v>14.17610909</v>
       </c>
@@ -852,25 +876,25 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="10"/>
       <c r="E16" s="2">
         <v>13.0</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="11">
         <v>10000.0</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <f>sum(Sheet2!C135:C145)/count(Sheet2!B135:B145)</f>
         <v>0.008363636364</v>
       </c>
@@ -880,24 +904,24 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="17"/>
+      <c r="B17" s="16"/>
       <c r="D17" s="10"/>
       <c r="E17" s="2">
         <v>14.0</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="11">
         <v>10000.0</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <f>sum(Sheet2!C146:C156)/count(Sheet2!B146:B156)</f>
         <v>0.003581818182</v>
       </c>
@@ -911,19 +935,19 @@
       <c r="E18" s="2">
         <v>15.0</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="11">
         <v>100000.0</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <f>sum(Sheet2!C157:C167)/count(Sheet2!B157:B167)</f>
         <v>0.01209090909</v>
       </c>
@@ -937,19 +961,19 @@
       <c r="E19" s="2">
         <v>16.0</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="11">
         <v>100000.0</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <f>sum(Sheet2!C168:C178)/count(Sheet2!B168:B178)</f>
         <v>0.006564545455</v>
       </c>
@@ -963,19 +987,19 @@
       <c r="E20" s="2">
         <v>17.0</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="11">
         <v>1000000.0</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <f>sum(Sheet2!C179:C189)/count(Sheet2!B179:B189)</f>
         <v>0.03272727273</v>
       </c>
@@ -989,19 +1013,19 @@
       <c r="E21" s="2">
         <v>18.0</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="11">
         <v>1000000.0</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <f>sum(Sheet2!C190:C200)/count(Sheet2!B190:B200)</f>
         <v>0.07768181818</v>
       </c>
@@ -1015,19 +1039,19 @@
       <c r="E22" s="2">
         <v>19.0</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="11">
         <v>10000.0</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <f>sum(Sheet2!C201:C211)/count(Sheet2!B201:B211)</f>
         <v>0.009236363636</v>
       </c>
@@ -1041,19 +1065,19 @@
       <c r="E23" s="2">
         <v>20.0</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="11">
         <v>10000.0</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <f>sum(Sheet2!C212:C222)/count(Sheet2!B212:B222)</f>
         <v>0.01360909091</v>
       </c>
@@ -1067,19 +1091,19 @@
       <c r="E24" s="2">
         <v>21.0</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="11">
         <v>100000.0</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <f>sum(Sheet2!C223:C233)/count(Sheet2!B223:B233)</f>
         <v>0.008390909091</v>
       </c>
@@ -1093,19 +1117,19 @@
       <c r="E25" s="2">
         <v>22.0</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="11">
         <v>100000.0</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <f>sum(Sheet2!C234:C244)/count(Sheet2!B234:B244)</f>
         <v>0.009090909091</v>
       </c>
@@ -1119,19 +1143,19 @@
       <c r="E26" s="2">
         <v>23.0</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="11">
         <v>1000000.0</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <f>sum(Sheet2!C245:C255)/count(Sheet2!B245:B255)</f>
         <v>1.241572727</v>
       </c>
@@ -1145,19 +1169,19 @@
       <c r="E27" s="2">
         <v>24.0</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="11">
         <v>1000000.0</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <f>sum(Sheet2!C256:C266)/count(Sheet2!B256:B266)</f>
         <v>1.0492</v>
       </c>
@@ -1171,19 +1195,19 @@
       <c r="E28" s="2">
         <v>25.0</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H28" s="11">
         <v>10000.0</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <f>sum(Sheet2!C267:C277)/count(Sheet2!B267:B277)</f>
         <v>0.3979090909</v>
       </c>
@@ -1197,19 +1221,19 @@
       <c r="E29" s="2">
         <v>26.0</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H29" s="11">
         <v>10000.0</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <f>sum(Sheet2!C278:C288)/count(Sheet2!B278:B288)</f>
         <v>0.3107181818</v>
       </c>
@@ -1223,19 +1247,19 @@
       <c r="E30" s="2">
         <v>27.0</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H30" s="11">
         <v>100000.0</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <f>sum(Sheet2!C289:C299)/count(Sheet2!B289:B299)</f>
         <v>0.4040909091</v>
       </c>
@@ -1249,19 +1273,19 @@
       <c r="E31" s="2">
         <v>28.0</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H31" s="11">
         <v>100000.0</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <f>sum(Sheet2!C300:C310)/count(Sheet2!B300:B310)</f>
         <v>0.1733090909</v>
       </c>
@@ -1275,19 +1299,19 @@
       <c r="E32" s="2">
         <v>29.0</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H32" s="11">
         <v>1000000.0</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <f>sum(Sheet2!C311:C321)/count(Sheet2!B311:B321)</f>
         <v>58.28054545</v>
       </c>
@@ -1301,19 +1325,19 @@
       <c r="E33" s="2">
         <v>30.0</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H33" s="11">
         <v>1000000.0</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <f>sum(Sheet2!C322:C332)/count(Sheet2!B322:B332)</f>
         <v>27.55594545</v>
       </c>
@@ -1327,19 +1351,19 @@
       <c r="E34" s="2">
         <v>31.0</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="11">
         <v>10000.0</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <f>sum(Sheet2!C333:C343)/count(Sheet2!B333:B343)</f>
         <v>0.01027272727</v>
       </c>
@@ -1353,19 +1377,19 @@
       <c r="E35" s="2">
         <v>32.0</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="11">
         <v>10000.0</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <f>sum(Sheet2!C344:C354)/count(Sheet2!B344:B354)</f>
         <v>0.004427272727</v>
       </c>
@@ -1379,19 +1403,19 @@
       <c r="E36" s="2">
         <v>33.0</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="11">
         <v>100000.0</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <f>sum(Sheet2!C355:C365)/count(Sheet2!B355:B365)</f>
         <v>0.01562727273</v>
       </c>
@@ -1405,19 +1429,19 @@
       <c r="E37" s="2">
         <v>34.0</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="11">
         <v>100000.0</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <f>sum(Sheet2!C366:C376)/count(Sheet2!B366:B376)</f>
         <v>0.0173</v>
       </c>
@@ -1431,19 +1455,19 @@
       <c r="E38" s="2">
         <v>35.0</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="11">
         <v>1000000.0</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <f>sum(Sheet2!C377:C387)/count(Sheet2!B377:B387)</f>
         <v>0.2608181818</v>
       </c>
@@ -1457,19 +1481,19 @@
       <c r="E39" s="2">
         <v>36.0</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="11">
         <v>1000000.0</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <f>sum(Sheet2!C388:C398)/count(Sheet2!B388:B398)</f>
         <v>0.167</v>
       </c>
@@ -1480,515 +1504,275 @@
     </row>
     <row r="40">
       <c r="E40" s="19"/>
-      <c r="F40" s="17"/>
+      <c r="F40" s="16"/>
       <c r="K40" s="20"/>
     </row>
     <row r="41">
       <c r="E41" s="19"/>
-      <c r="F41" s="17"/>
+      <c r="F41" s="16"/>
       <c r="K41" s="20"/>
     </row>
     <row r="42">
       <c r="E42" s="19"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="16"/>
       <c r="K42" s="20"/>
     </row>
     <row r="43">
       <c r="E43" s="19"/>
-      <c r="F43" s="17"/>
+      <c r="F43" s="16"/>
       <c r="K43" s="20"/>
     </row>
     <row r="44">
       <c r="E44" s="19"/>
-      <c r="F44" s="17"/>
+      <c r="F44" s="16"/>
       <c r="K44" s="20"/>
     </row>
     <row r="45">
       <c r="E45" s="19"/>
-      <c r="F45" s="17"/>
+      <c r="F45" s="16"/>
       <c r="K45" s="20"/>
     </row>
     <row r="46">
       <c r="E46" s="19"/>
-      <c r="F46" s="17"/>
+      <c r="F46" s="16"/>
       <c r="K46" s="20"/>
     </row>
     <row r="47">
       <c r="E47" s="19"/>
-      <c r="F47" s="17"/>
+      <c r="F47" s="16"/>
       <c r="K47" s="20"/>
     </row>
     <row r="48">
       <c r="E48" s="19"/>
-      <c r="F48" s="17"/>
+      <c r="F48" s="16"/>
       <c r="K48" s="20"/>
     </row>
     <row r="49">
       <c r="E49" s="19"/>
-      <c r="F49" s="17"/>
+      <c r="F49" s="16"/>
       <c r="K49" s="20"/>
     </row>
     <row r="50">
       <c r="E50" s="19"/>
-      <c r="F50" s="17"/>
+      <c r="F50" s="16"/>
       <c r="K50" s="20"/>
     </row>
     <row r="51">
       <c r="E51" s="19"/>
-      <c r="F51" s="17"/>
+      <c r="F51" s="16"/>
       <c r="K51" s="20"/>
     </row>
     <row r="52">
       <c r="E52" s="19"/>
-      <c r="F52" s="17"/>
+      <c r="F52" s="16"/>
       <c r="K52" s="20"/>
     </row>
     <row r="53">
       <c r="E53" s="19"/>
-      <c r="F53" s="17"/>
+      <c r="F53" s="16"/>
       <c r="K53" s="20"/>
     </row>
     <row r="54">
       <c r="E54" s="19"/>
-      <c r="F54" s="17"/>
+      <c r="F54" s="16"/>
       <c r="K54" s="20"/>
     </row>
     <row r="55">
       <c r="E55" s="19"/>
-      <c r="F55" s="17"/>
+      <c r="F55" s="16"/>
       <c r="K55" s="20"/>
     </row>
     <row r="56">
-      <c r="E56" s="19"/>
-      <c r="F56" s="17"/>
-      <c r="K56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="K56" s="23"/>
     </row>
     <row r="57">
-      <c r="E57" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" s="5">
-        <v>0.0353</v>
-      </c>
-      <c r="K57" s="20"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="23"/>
     </row>
     <row r="58">
-      <c r="E58" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="5">
-        <v>0.032</v>
-      </c>
-      <c r="K58" s="20"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="23"/>
     </row>
     <row r="59">
-      <c r="E59" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J59" s="5">
-        <v>0.0353</v>
-      </c>
-      <c r="K59" s="20"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="23"/>
     </row>
     <row r="60">
-      <c r="E60" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" s="5">
-        <v>0.032</v>
-      </c>
-      <c r="K60" s="20"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="23"/>
     </row>
     <row r="61">
-      <c r="E61" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" s="5">
-        <v>0.0353</v>
-      </c>
-      <c r="K61" s="20"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="23"/>
     </row>
     <row r="62">
-      <c r="E62" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="5">
-        <v>0.032</v>
-      </c>
-      <c r="K62" s="20"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23"/>
     </row>
     <row r="63">
-      <c r="E63" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63" s="5">
-        <v>0.0353</v>
-      </c>
-      <c r="K63" s="20"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="23"/>
     </row>
     <row r="64">
-      <c r="E64" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="5">
-        <v>0.032</v>
-      </c>
-      <c r="K64" s="20"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="23"/>
     </row>
     <row r="65">
-      <c r="E65" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65" s="5">
-        <v>0.0353</v>
-      </c>
-      <c r="K65" s="20"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="23"/>
     </row>
     <row r="66">
-      <c r="E66" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="5">
-        <v>0.032</v>
-      </c>
-      <c r="K66" s="20"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="23"/>
     </row>
     <row r="67">
-      <c r="E67" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J67" s="5">
-        <v>0.0353</v>
-      </c>
-      <c r="K67" s="20"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="23"/>
     </row>
     <row r="68">
-      <c r="E68" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="5">
-        <v>0.032</v>
-      </c>
-      <c r="K68" s="20"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="23"/>
     </row>
     <row r="69">
-      <c r="E69" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" s="5">
-        <v>0.0353</v>
-      </c>
-      <c r="K69" s="20"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="23"/>
     </row>
     <row r="70">
-      <c r="E70" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="5">
-        <v>0.032</v>
-      </c>
-      <c r="K70" s="20"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="23"/>
     </row>
     <row r="71">
-      <c r="E71" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J71" s="5">
-        <v>0.0353</v>
-      </c>
-      <c r="K71" s="20"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="23"/>
     </row>
     <row r="72">
-      <c r="E72" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="5">
-        <v>0.032</v>
-      </c>
-      <c r="K72" s="20"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="23"/>
     </row>
     <row r="73">
-      <c r="E73" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J73" s="5">
-        <v>0.0353</v>
-      </c>
-      <c r="K73" s="20"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="23"/>
     </row>
     <row r="74">
-      <c r="E74" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="5">
-        <v>0.032</v>
-      </c>
-      <c r="K74" s="20"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="23"/>
     </row>
     <row r="75">
-      <c r="E75" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J75" s="5">
-        <v>0.0353</v>
-      </c>
-      <c r="K75" s="20"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="23"/>
     </row>
     <row r="76">
-      <c r="E76" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="5">
-        <v>0.032</v>
-      </c>
+      <c r="E76" s="24"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
     </row>
     <row r="77">
-      <c r="E77" s="19"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="18"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="17"/>
     </row>
     <row r="78">
       <c r="E78" s="19"/>
@@ -1998,11 +1782,11 @@
     </row>
     <row r="80">
       <c r="E80" s="19"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="22"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="29"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="18"/>
+      <c r="J80" s="17"/>
     </row>
     <row r="81">
       <c r="E81" s="19"/>
@@ -2096,11 +1880,11 @@
     </row>
     <row r="111">
       <c r="E111" s="19"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="21"/>
-      <c r="J111" s="18"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2140,7 +1924,7 @@
       <c r="B2" s="2">
         <v>1.0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.0353</v>
       </c>
     </row>
@@ -2148,7 +1932,7 @@
       <c r="B3" s="2">
         <v>1.0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>0.035</v>
       </c>
     </row>
@@ -2156,7 +1940,7 @@
       <c r="B4" s="2">
         <v>1.0</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>0.036</v>
       </c>
     </row>
@@ -2164,7 +1948,7 @@
       <c r="B5" s="2">
         <v>1.0</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>0.0353</v>
       </c>
     </row>
@@ -2172,7 +1956,7 @@
       <c r="B6" s="2">
         <v>1.0</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>0.035</v>
       </c>
     </row>
@@ -2180,7 +1964,7 @@
       <c r="B7" s="2">
         <v>1.0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>0.0362</v>
       </c>
     </row>
@@ -2188,7 +1972,7 @@
       <c r="B8" s="2">
         <v>1.0</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>0.0363</v>
       </c>
     </row>
@@ -2196,7 +1980,7 @@
       <c r="B9" s="2">
         <v>1.0</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>0.0353</v>
       </c>
     </row>
@@ -2204,7 +1988,7 @@
       <c r="B10" s="2">
         <v>1.0</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>0.0353</v>
       </c>
     </row>
@@ -2212,7 +1996,7 @@
       <c r="B11" s="2">
         <v>1.0</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>0.0353</v>
       </c>
     </row>
@@ -2220,7 +2004,7 @@
       <c r="B12" s="2">
         <v>1.0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>0.0363</v>
       </c>
     </row>
@@ -2228,7 +2012,7 @@
       <c r="B13" s="2">
         <v>1.0</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>0.0353</v>
       </c>
     </row>
@@ -2236,7 +2020,7 @@
       <c r="B14" s="2">
         <v>2.0</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.03</v>
       </c>
     </row>
@@ -2244,7 +2028,7 @@
       <c r="B15" s="2">
         <v>2.0</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.029</v>
       </c>
     </row>
@@ -2252,7 +2036,7 @@
       <c r="B16" s="2">
         <v>2.0</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.035</v>
       </c>
     </row>
@@ -2260,7 +2044,7 @@
       <c r="B17" s="2">
         <v>2.0</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.032</v>
       </c>
     </row>
@@ -2268,7 +2052,7 @@
       <c r="B18" s="2">
         <v>2.0</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.032</v>
       </c>
     </row>
@@ -2276,7 +2060,7 @@
       <c r="B19" s="2">
         <v>2.0</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.0346</v>
       </c>
     </row>
@@ -2284,7 +2068,7 @@
       <c r="B20" s="2">
         <v>2.0</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.032</v>
       </c>
     </row>
@@ -2292,7 +2076,7 @@
       <c r="B21" s="2">
         <v>2.0</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.032</v>
       </c>
     </row>
@@ -2300,7 +2084,7 @@
       <c r="B22" s="2">
         <v>2.0</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.031</v>
       </c>
     </row>
@@ -2308,7 +2092,7 @@
       <c r="B23" s="2">
         <v>2.0</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>0.032</v>
       </c>
     </row>
@@ -2316,7 +2100,7 @@
       <c r="B24" s="2">
         <v>2.0</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0.032</v>
       </c>
     </row>
@@ -2324,7 +2108,7 @@
       <c r="B25" s="2">
         <v>3.0</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>0.0396</v>
       </c>
     </row>
@@ -2332,7 +2116,7 @@
       <c r="B26" s="2">
         <v>3.0</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <v>0.059</v>
       </c>
     </row>
@@ -2340,7 +2124,7 @@
       <c r="B27" s="2">
         <v>3.0</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>0.041</v>
       </c>
     </row>
@@ -2348,7 +2132,7 @@
       <c r="B28" s="2">
         <v>3.0</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="5">
         <v>0.04</v>
       </c>
     </row>
@@ -2356,7 +2140,7 @@
       <c r="B29" s="2">
         <v>3.0</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>0.038</v>
       </c>
     </row>
@@ -2364,7 +2148,7 @@
       <c r="B30" s="2">
         <v>3.0</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="5">
         <v>0.039</v>
       </c>
     </row>
@@ -2372,7 +2156,7 @@
       <c r="B31" s="2">
         <v>3.0</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>0.039</v>
       </c>
     </row>
@@ -2380,7 +2164,7 @@
       <c r="B32" s="2">
         <v>3.0</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <v>0.038</v>
       </c>
     </row>
@@ -2388,7 +2172,7 @@
       <c r="B33" s="2">
         <v>3.0</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <v>0.045</v>
       </c>
     </row>
@@ -2396,7 +2180,7 @@
       <c r="B34" s="2">
         <v>3.0</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="5">
         <v>0.038</v>
       </c>
     </row>
@@ -2404,7 +2188,7 @@
       <c r="B35" s="2">
         <v>3.0</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="5">
         <v>0.039</v>
       </c>
     </row>
@@ -2412,7 +2196,7 @@
       <c r="B36" s="2">
         <v>4.0</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>0.038</v>
       </c>
     </row>
@@ -2420,7 +2204,7 @@
       <c r="B37" s="2">
         <v>4.0</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>0.038</v>
       </c>
     </row>
@@ -2428,7 +2212,7 @@
       <c r="B38" s="2">
         <v>4.0</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>0.01</v>
       </c>
     </row>
@@ -2436,7 +2220,7 @@
       <c r="B39" s="2">
         <v>4.0</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>0.0406</v>
       </c>
     </row>
@@ -2444,7 +2228,7 @@
       <c r="B40" s="2">
         <v>4.0</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>0.0117</v>
       </c>
     </row>
@@ -2452,7 +2236,7 @@
       <c r="B41" s="2">
         <v>4.0</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>0.048</v>
       </c>
     </row>
@@ -2460,7 +2244,7 @@
       <c r="B42" s="2">
         <v>4.0</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>0.038</v>
       </c>
     </row>
@@ -2468,7 +2252,7 @@
       <c r="B43" s="2">
         <v>4.0</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>0.038</v>
       </c>
     </row>
@@ -2476,7 +2260,7 @@
       <c r="B44" s="2">
         <v>4.0</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>0.043</v>
       </c>
     </row>
@@ -2484,7 +2268,7 @@
       <c r="B45" s="2">
         <v>4.0</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>0.0375</v>
       </c>
     </row>
@@ -2492,7 +2276,7 @@
       <c r="B46" s="2">
         <v>4.0</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>0.038</v>
       </c>
     </row>
@@ -2500,7 +2284,7 @@
       <c r="B47" s="2">
         <v>5.0</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>4.8356</v>
       </c>
     </row>
@@ -2508,7 +2292,7 @@
       <c r="B48" s="2">
         <v>5.0</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="5">
         <v>5.49</v>
       </c>
     </row>
@@ -2516,7 +2300,7 @@
       <c r="B49" s="2">
         <v>5.0</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="5">
         <v>4.899</v>
       </c>
     </row>
@@ -2524,7 +2308,7 @@
       <c r="B50" s="2">
         <v>5.0</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="5">
         <v>5.468</v>
       </c>
     </row>
@@ -2532,7 +2316,7 @@
       <c r="B51" s="2">
         <v>5.0</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="5">
         <v>5.433</v>
       </c>
     </row>
@@ -2540,7 +2324,7 @@
       <c r="B52" s="2">
         <v>5.0</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="5">
         <v>4.828</v>
       </c>
     </row>
@@ -2548,7 +2332,7 @@
       <c r="B53" s="2">
         <v>5.0</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="5">
         <v>5.477</v>
       </c>
     </row>
@@ -2556,7 +2340,7 @@
       <c r="B54" s="2">
         <v>5.0</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="5">
         <v>5.316</v>
       </c>
     </row>
@@ -2564,7 +2348,7 @@
       <c r="B55" s="2">
         <v>5.0</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="5">
         <v>5.474</v>
       </c>
     </row>
@@ -2572,7 +2356,7 @@
       <c r="B56" s="2">
         <v>5.0</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="5">
         <v>5.371</v>
       </c>
     </row>
@@ -2580,7 +2364,7 @@
       <c r="B57" s="2">
         <v>5.0</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="5">
         <v>5.565</v>
       </c>
     </row>
@@ -2588,7 +2372,7 @@
       <c r="B58" s="2">
         <v>6.0</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>4.579</v>
       </c>
     </row>
@@ -2596,7 +2380,7 @@
       <c r="B59" s="2">
         <v>6.0</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="5">
         <v>5.13</v>
       </c>
     </row>
@@ -2604,7 +2388,7 @@
       <c r="B60" s="2">
         <v>6.0</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="5">
         <v>4.667</v>
       </c>
     </row>
@@ -2612,7 +2396,7 @@
       <c r="B61" s="2">
         <v>6.0</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="5">
         <v>5.081</v>
       </c>
     </row>
@@ -2620,7 +2404,7 @@
       <c r="B62" s="2">
         <v>6.0</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="5">
         <v>4.778</v>
       </c>
     </row>
@@ -2628,7 +2412,7 @@
       <c r="B63" s="2">
         <v>6.0</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="5">
         <v>5.366</v>
       </c>
     </row>
@@ -2636,7 +2420,7 @@
       <c r="B64" s="2">
         <v>6.0</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="5">
         <v>5.29</v>
       </c>
     </row>
@@ -2644,7 +2428,7 @@
       <c r="B65" s="2">
         <v>6.0</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="5">
         <v>4.789</v>
       </c>
     </row>
@@ -2652,7 +2436,7 @@
       <c r="B66" s="2">
         <v>6.0</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="5">
         <v>4.934</v>
       </c>
     </row>
@@ -2660,7 +2444,7 @@
       <c r="B67" s="2">
         <v>6.0</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="5">
         <v>5.342</v>
       </c>
     </row>
@@ -2668,7 +2452,7 @@
       <c r="B68" s="2">
         <v>6.0</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="5">
         <v>5.351</v>
       </c>
     </row>
@@ -2676,7 +2460,7 @@
       <c r="B69" s="2">
         <v>7.0</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <v>0.141</v>
       </c>
     </row>
@@ -2684,7 +2468,7 @@
       <c r="B70" s="2">
         <v>7.0</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>0.23</v>
       </c>
     </row>
@@ -2692,7 +2476,7 @@
       <c r="B71" s="2">
         <v>7.0</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>0.103</v>
       </c>
     </row>
@@ -2700,7 +2484,7 @@
       <c r="B72" s="2">
         <v>7.0</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <v>0.15</v>
       </c>
     </row>
@@ -2708,7 +2492,7 @@
       <c r="B73" s="2">
         <v>7.0</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>0.141</v>
       </c>
     </row>
@@ -2716,7 +2500,7 @@
       <c r="B74" s="2">
         <v>7.0</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <v>0.141</v>
       </c>
     </row>
@@ -2724,7 +2508,7 @@
       <c r="B75" s="2">
         <v>7.0</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <v>0.141</v>
       </c>
     </row>
@@ -2732,7 +2516,7 @@
       <c r="B76" s="2">
         <v>7.0</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <v>0.179</v>
       </c>
     </row>
@@ -2740,7 +2524,7 @@
       <c r="B77" s="2">
         <v>7.0</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <v>0.103</v>
       </c>
     </row>
@@ -2748,7 +2532,7 @@
       <c r="B78" s="2">
         <v>7.0</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>0.103</v>
       </c>
     </row>
@@ -2756,7 +2540,7 @@
       <c r="B79" s="2">
         <v>7.0</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <v>0.141</v>
       </c>
     </row>
@@ -2764,7 +2548,7 @@
       <c r="B80" s="2">
         <v>8.0</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <v>0.1191</v>
       </c>
     </row>
@@ -2772,7 +2556,7 @@
       <c r="B81" s="2">
         <v>8.0</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>0.21</v>
       </c>
     </row>
@@ -2780,7 +2564,7 @@
       <c r="B82" s="2">
         <v>8.0</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <v>0.103</v>
       </c>
     </row>
@@ -2788,7 +2572,7 @@
       <c r="B83" s="2">
         <v>8.0</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <v>0.11</v>
       </c>
     </row>
@@ -2796,7 +2580,7 @@
       <c r="B84" s="2">
         <v>8.0</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>0.1191</v>
       </c>
     </row>
@@ -2804,7 +2588,7 @@
       <c r="B85" s="2">
         <v>8.0</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>0.1191</v>
       </c>
     </row>
@@ -2812,7 +2596,7 @@
       <c r="B86" s="2">
         <v>8.0</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>0.103</v>
       </c>
     </row>
@@ -2820,7 +2604,7 @@
       <c r="B87" s="2">
         <v>8.0</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <v>0.1191</v>
       </c>
     </row>
@@ -2828,7 +2612,7 @@
       <c r="B88" s="2">
         <v>8.0</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="4">
         <v>0.135</v>
       </c>
     </row>
@@ -2836,7 +2620,7 @@
       <c r="B89" s="2">
         <v>8.0</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <v>0.1191</v>
       </c>
     </row>
@@ -2844,7 +2628,7 @@
       <c r="B90" s="2">
         <v>8.0</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <v>0.135</v>
       </c>
     </row>
@@ -2852,7 +2636,7 @@
       <c r="B91" s="2">
         <v>9.0</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>0.103</v>
       </c>
     </row>
@@ -2860,7 +2644,7 @@
       <c r="B92" s="2">
         <v>9.0</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>0.157</v>
       </c>
     </row>
@@ -2868,7 +2652,7 @@
       <c r="B93" s="2">
         <v>9.0</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>0.121</v>
       </c>
     </row>
@@ -2876,7 +2660,7 @@
       <c r="B94" s="2">
         <v>9.0</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>0.103</v>
       </c>
     </row>
@@ -2884,7 +2668,7 @@
       <c r="B95" s="2">
         <v>9.0</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <v>0.103</v>
       </c>
     </row>
@@ -2892,7 +2676,7 @@
       <c r="B96" s="2">
         <v>9.0</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="4">
         <v>0.096</v>
       </c>
     </row>
@@ -2900,7 +2684,7 @@
       <c r="B97" s="2">
         <v>9.0</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="4">
         <v>0.103</v>
       </c>
     </row>
@@ -2908,7 +2692,7 @@
       <c r="B98" s="2">
         <v>9.0</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <v>0.103</v>
       </c>
     </row>
@@ -2916,7 +2700,7 @@
       <c r="B99" s="2">
         <v>9.0</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <v>0.096</v>
       </c>
     </row>
@@ -2924,7 +2708,7 @@
       <c r="B100" s="2">
         <v>9.0</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="4">
         <v>0.103</v>
       </c>
     </row>
@@ -2932,7 +2716,7 @@
       <c r="B101" s="2">
         <v>9.0</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="4">
         <v>0.121</v>
       </c>
     </row>
@@ -2940,7 +2724,7 @@
       <c r="B102" s="2">
         <v>10.0</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="4">
         <v>0.0516</v>
       </c>
     </row>
@@ -2948,7 +2732,7 @@
       <c r="B103" s="2">
         <v>10.0</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="4">
         <v>0.06</v>
       </c>
     </row>
@@ -2956,7 +2740,7 @@
       <c r="B104" s="2">
         <v>10.0</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="4">
         <v>0.0516</v>
       </c>
     </row>
@@ -2964,7 +2748,7 @@
       <c r="B105" s="2">
         <v>10.0</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="4">
         <v>0.06</v>
       </c>
     </row>
@@ -2972,7 +2756,7 @@
       <c r="B106" s="2">
         <v>10.0</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4">
         <v>0.06</v>
       </c>
     </row>
@@ -2980,7 +2764,7 @@
       <c r="B107" s="2">
         <v>10.0</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4">
         <v>0.0439</v>
       </c>
     </row>
@@ -2988,7 +2772,7 @@
       <c r="B108" s="2">
         <v>10.0</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="4">
         <v>0.0516</v>
       </c>
     </row>
@@ -2996,7 +2780,7 @@
       <c r="B109" s="2">
         <v>10.0</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="4">
         <v>0.0516</v>
       </c>
     </row>
@@ -3004,7 +2788,7 @@
       <c r="B110" s="2">
         <v>10.0</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="4">
         <v>0.0439</v>
       </c>
     </row>
@@ -3012,7 +2796,7 @@
       <c r="B111" s="2">
         <v>10.0</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="4">
         <v>0.0516</v>
       </c>
     </row>
@@ -3020,7 +2804,7 @@
       <c r="B112" s="2">
         <v>10.0</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="4">
         <v>0.0516</v>
       </c>
     </row>
@@ -3028,7 +2812,7 @@
       <c r="B113" s="2">
         <v>11.0</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="4">
         <v>19.603</v>
       </c>
     </row>
@@ -3036,7 +2820,7 @@
       <c r="B114" s="2">
         <v>11.0</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="4">
         <v>19.7</v>
       </c>
     </row>
@@ -3044,7 +2828,7 @@
       <c r="B115" s="2">
         <v>11.0</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="4">
         <v>19.603</v>
       </c>
     </row>
@@ -3052,7 +2836,7 @@
       <c r="B116" s="2">
         <v>11.0</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="4">
         <v>19.603</v>
       </c>
     </row>
@@ -3060,7 +2844,7 @@
       <c r="B117" s="2">
         <v>11.0</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="4">
         <v>19.603</v>
       </c>
     </row>
@@ -3068,7 +2852,7 @@
       <c r="B118" s="2">
         <v>11.0</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="4">
         <v>19.301</v>
       </c>
     </row>
@@ -3076,7 +2860,7 @@
       <c r="B119" s="2">
         <v>11.0</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="4">
         <v>19.603</v>
       </c>
     </row>
@@ -3084,7 +2868,7 @@
       <c r="B120" s="2">
         <v>11.0</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="4">
         <v>19.301</v>
       </c>
     </row>
@@ -3092,7 +2876,7 @@
       <c r="B121" s="2">
         <v>11.0</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="4">
         <v>19.603</v>
       </c>
     </row>
@@ -3100,7 +2884,7 @@
       <c r="B122" s="2">
         <v>11.0</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="4">
         <v>19.823</v>
       </c>
     </row>
@@ -3108,7 +2892,7 @@
       <c r="B123" s="2">
         <v>11.0</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="4">
         <v>19.823</v>
       </c>
     </row>
@@ -3116,7 +2900,7 @@
       <c r="B124" s="2">
         <v>12.0</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="4">
         <v>14.1212</v>
       </c>
     </row>
@@ -3124,7 +2908,7 @@
       <c r="B125" s="2">
         <v>12.0</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="4">
         <v>13.956</v>
       </c>
     </row>
@@ -3132,7 +2916,7 @@
       <c r="B126" s="2">
         <v>12.0</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="4">
         <v>14.1212</v>
       </c>
     </row>
@@ -3140,7 +2924,7 @@
       <c r="B127" s="2">
         <v>12.0</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="4">
         <v>13.956</v>
       </c>
     </row>
@@ -3148,7 +2932,7 @@
       <c r="B128" s="2">
         <v>12.0</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="4">
         <v>14.1212</v>
       </c>
     </row>
@@ -3156,7 +2940,7 @@
       <c r="B129" s="2">
         <v>12.0</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="4">
         <v>14.1212</v>
       </c>
     </row>
@@ -3164,7 +2948,7 @@
       <c r="B130" s="2">
         <v>12.0</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="4">
         <v>14.1212</v>
       </c>
     </row>
@@ -3172,7 +2956,7 @@
       <c r="B131" s="2">
         <v>12.0</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="4">
         <v>14.1212</v>
       </c>
     </row>
@@ -3180,7 +2964,7 @@
       <c r="B132" s="2">
         <v>12.0</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="4">
         <v>14.401</v>
       </c>
     </row>
@@ -3188,7 +2972,7 @@
       <c r="B133" s="2">
         <v>12.0</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="4">
         <v>14.441</v>
       </c>
     </row>
@@ -3196,7 +2980,7 @@
       <c r="B134" s="2">
         <v>12.0</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="4">
         <v>14.456</v>
       </c>
     </row>
@@ -3204,7 +2988,7 @@
       <c r="B135" s="2">
         <v>13.0</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="4">
         <v>0.006</v>
       </c>
     </row>
@@ -3212,7 +2996,7 @@
       <c r="B136" s="2">
         <v>13.0</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3220,7 +3004,7 @@
       <c r="B137" s="2">
         <v>13.0</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="5">
         <v>0.012</v>
       </c>
     </row>
@@ -3228,7 +3012,7 @@
       <c r="B138" s="2">
         <v>13.0</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3236,7 +3020,7 @@
       <c r="B139" s="2">
         <v>13.0</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139" s="5">
         <v>0.007</v>
       </c>
     </row>
@@ -3244,7 +3028,7 @@
       <c r="B140" s="2">
         <v>13.0</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3252,7 +3036,7 @@
       <c r="B141" s="2">
         <v>13.0</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3260,7 +3044,7 @@
       <c r="B142" s="2">
         <v>13.0</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="5">
         <v>0.01</v>
       </c>
     </row>
@@ -3268,7 +3052,7 @@
       <c r="B143" s="2">
         <v>13.0</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -3276,7 +3060,7 @@
       <c r="B144" s="2">
         <v>13.0</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3284,7 +3068,7 @@
       <c r="B145" s="2">
         <v>13.0</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3292,7 +3076,7 @@
       <c r="B146" s="2">
         <v>14.0</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="4">
         <v>0.004</v>
       </c>
     </row>
@@ -3300,7 +3084,7 @@
       <c r="B147" s="2">
         <v>14.0</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="4">
         <v>0.0036</v>
       </c>
     </row>
@@ -3308,7 +3092,7 @@
       <c r="B148" s="2">
         <v>14.0</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="4">
         <v>0.0036</v>
       </c>
     </row>
@@ -3316,7 +3100,7 @@
       <c r="B149" s="2">
         <v>14.0</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149" s="4">
         <v>0.0029</v>
       </c>
     </row>
@@ -3324,7 +3108,7 @@
       <c r="B150" s="2">
         <v>14.0</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="4">
         <v>0.0029</v>
       </c>
     </row>
@@ -3332,7 +3116,7 @@
       <c r="B151" s="2">
         <v>14.0</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="4">
         <v>0.0036</v>
       </c>
     </row>
@@ -3340,7 +3124,7 @@
       <c r="B152" s="2">
         <v>14.0</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="4">
         <v>0.0036</v>
       </c>
     </row>
@@ -3348,7 +3132,7 @@
       <c r="B153" s="2">
         <v>14.0</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="4">
         <v>0.0036</v>
       </c>
     </row>
@@ -3356,7 +3140,7 @@
       <c r="B154" s="2">
         <v>14.0</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="4">
         <v>0.004</v>
       </c>
     </row>
@@ -3364,7 +3148,7 @@
       <c r="B155" s="2">
         <v>14.0</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="4">
         <v>0.004</v>
       </c>
     </row>
@@ -3372,7 +3156,7 @@
       <c r="B156" s="2">
         <v>14.0</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="4">
         <v>0.0036</v>
       </c>
     </row>
@@ -3388,7 +3172,7 @@
       <c r="B158" s="2">
         <v>15.0</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158" s="5">
         <v>0.016</v>
       </c>
     </row>
@@ -3396,7 +3180,7 @@
       <c r="B159" s="2">
         <v>15.0</v>
       </c>
-      <c r="C159" s="7">
+      <c r="C159" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -3404,7 +3188,7 @@
       <c r="B160" s="2">
         <v>15.0</v>
       </c>
-      <c r="C160" s="7">
+      <c r="C160" s="5">
         <v>0.012</v>
       </c>
     </row>
@@ -3412,7 +3196,7 @@
       <c r="B161" s="2">
         <v>15.0</v>
       </c>
-      <c r="C161" s="7">
+      <c r="C161" s="5">
         <v>0.015</v>
       </c>
     </row>
@@ -3420,7 +3204,7 @@
       <c r="B162" s="2">
         <v>15.0</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3428,7 +3212,7 @@
       <c r="B163" s="2">
         <v>15.0</v>
       </c>
-      <c r="C163" s="7">
+      <c r="C163" s="5">
         <v>0.016</v>
       </c>
     </row>
@@ -3436,7 +3220,7 @@
       <c r="B164" s="2">
         <v>15.0</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C164" s="5">
         <v>0.012</v>
       </c>
     </row>
@@ -3444,7 +3228,7 @@
       <c r="B165" s="2">
         <v>15.0</v>
       </c>
-      <c r="C165" s="7">
+      <c r="C165" s="5">
         <v>0.013</v>
       </c>
     </row>
@@ -3452,7 +3236,7 @@
       <c r="B166" s="2">
         <v>15.0</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166" s="5">
         <v>0.012</v>
       </c>
     </row>
@@ -3460,7 +3244,7 @@
       <c r="B167" s="2">
         <v>15.0</v>
       </c>
-      <c r="C167" s="7">
+      <c r="C167" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -3468,7 +3252,7 @@
       <c r="B168" s="2">
         <v>16.0</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168" s="4">
         <v>0.0063</v>
       </c>
     </row>
@@ -3476,7 +3260,7 @@
       <c r="B169" s="2">
         <v>16.0</v>
       </c>
-      <c r="C169" s="5">
+      <c r="C169" s="4">
         <v>0.007</v>
       </c>
     </row>
@@ -3484,7 +3268,7 @@
       <c r="B170" s="2">
         <v>16.0</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170" s="4">
         <v>0.0059</v>
       </c>
     </row>
@@ -3492,7 +3276,7 @@
       <c r="B171" s="2">
         <v>16.0</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C171" s="4">
         <v>0.00598</v>
       </c>
     </row>
@@ -3500,7 +3284,7 @@
       <c r="B172" s="2">
         <v>16.0</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C172" s="4">
         <v>0.007</v>
       </c>
     </row>
@@ -3508,7 +3292,7 @@
       <c r="B173" s="2">
         <v>16.0</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C173" s="4">
         <v>0.00703</v>
       </c>
     </row>
@@ -3516,7 +3300,7 @@
       <c r="B174" s="2">
         <v>16.0</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174" s="4">
         <v>0.0072</v>
       </c>
     </row>
@@ -3524,7 +3308,7 @@
       <c r="B175" s="2">
         <v>16.0</v>
       </c>
-      <c r="C175" s="5">
+      <c r="C175" s="4">
         <v>0.0063</v>
       </c>
     </row>
@@ -3532,7 +3316,7 @@
       <c r="B176" s="2">
         <v>16.0</v>
       </c>
-      <c r="C176" s="5">
+      <c r="C176" s="4">
         <v>0.0069</v>
       </c>
     </row>
@@ -3540,7 +3324,7 @@
       <c r="B177" s="2">
         <v>16.0</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C177" s="4">
         <v>0.0063</v>
       </c>
     </row>
@@ -3548,7 +3332,7 @@
       <c r="B178" s="2">
         <v>16.0</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178" s="4">
         <v>0.0063</v>
       </c>
     </row>
@@ -3556,7 +3340,7 @@
       <c r="B179" s="2">
         <v>17.0</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179" s="4">
         <v>0.037</v>
       </c>
     </row>
@@ -3564,7 +3348,7 @@
       <c r="B180" s="2">
         <v>17.0</v>
       </c>
-      <c r="C180" s="7">
+      <c r="C180" s="5">
         <v>0.042</v>
       </c>
     </row>
@@ -3572,7 +3356,7 @@
       <c r="B181" s="2">
         <v>17.0</v>
       </c>
-      <c r="C181" s="7">
+      <c r="C181" s="5">
         <v>0.026</v>
       </c>
     </row>
@@ -3580,7 +3364,7 @@
       <c r="B182" s="2">
         <v>17.0</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182" s="5">
         <v>0.019</v>
       </c>
     </row>
@@ -3588,7 +3372,7 @@
       <c r="B183" s="2">
         <v>17.0</v>
       </c>
-      <c r="C183" s="7">
+      <c r="C183" s="5">
         <v>0.029</v>
       </c>
     </row>
@@ -3596,7 +3380,7 @@
       <c r="B184" s="2">
         <v>17.0</v>
       </c>
-      <c r="C184" s="7">
+      <c r="C184" s="5">
         <v>0.034</v>
       </c>
     </row>
@@ -3604,7 +3388,7 @@
       <c r="B185" s="2">
         <v>17.0</v>
       </c>
-      <c r="C185" s="7">
+      <c r="C185" s="5">
         <v>0.019</v>
       </c>
     </row>
@@ -3612,7 +3396,7 @@
       <c r="B186" s="2">
         <v>17.0</v>
       </c>
-      <c r="C186" s="7">
+      <c r="C186" s="5">
         <v>0.034</v>
       </c>
     </row>
@@ -3620,7 +3404,7 @@
       <c r="B187" s="2">
         <v>17.0</v>
       </c>
-      <c r="C187" s="7">
+      <c r="C187" s="5">
         <v>0.046</v>
       </c>
     </row>
@@ -3628,7 +3412,7 @@
       <c r="B188" s="2">
         <v>17.0</v>
       </c>
-      <c r="C188" s="7">
+      <c r="C188" s="5">
         <v>0.031</v>
       </c>
     </row>
@@ -3636,7 +3420,7 @@
       <c r="B189" s="2">
         <v>17.0</v>
       </c>
-      <c r="C189" s="7">
+      <c r="C189" s="5">
         <v>0.043</v>
       </c>
     </row>
@@ -3644,7 +3428,7 @@
       <c r="B190" s="2">
         <v>18.0</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="4">
         <v>0.0676</v>
       </c>
     </row>
@@ -3652,7 +3436,7 @@
       <c r="B191" s="2">
         <v>18.0</v>
       </c>
-      <c r="C191" s="7">
+      <c r="C191" s="5">
         <v>0.08</v>
       </c>
     </row>
@@ -3660,7 +3444,7 @@
       <c r="B192" s="2">
         <v>18.0</v>
       </c>
-      <c r="C192" s="7">
+      <c r="C192" s="5">
         <v>0.08</v>
       </c>
     </row>
@@ -3668,7 +3452,7 @@
       <c r="B193" s="2">
         <v>18.0</v>
       </c>
-      <c r="C193" s="7">
+      <c r="C193" s="5">
         <v>0.07</v>
       </c>
     </row>
@@ -3676,7 +3460,7 @@
       <c r="B194" s="2">
         <v>18.0</v>
       </c>
-      <c r="C194" s="7">
+      <c r="C194" s="5">
         <v>0.08</v>
       </c>
     </row>
@@ -3684,7 +3468,7 @@
       <c r="B195" s="2">
         <v>18.0</v>
       </c>
-      <c r="C195" s="7">
+      <c r="C195" s="5">
         <v>0.0683</v>
       </c>
     </row>
@@ -3692,7 +3476,7 @@
       <c r="B196" s="2">
         <v>18.0</v>
       </c>
-      <c r="C196" s="7">
+      <c r="C196" s="5">
         <v>0.08</v>
       </c>
     </row>
@@ -3700,7 +3484,7 @@
       <c r="B197" s="2">
         <v>18.0</v>
       </c>
-      <c r="C197" s="7">
+      <c r="C197" s="5">
         <v>0.069</v>
       </c>
     </row>
@@ -3708,7 +3492,7 @@
       <c r="B198" s="2">
         <v>18.0</v>
       </c>
-      <c r="C198" s="7">
+      <c r="C198" s="5">
         <v>0.0946</v>
       </c>
     </row>
@@ -3716,7 +3500,7 @@
       <c r="B199" s="2">
         <v>18.0</v>
       </c>
-      <c r="C199" s="7">
+      <c r="C199" s="5">
         <v>0.089</v>
       </c>
     </row>
@@ -3724,7 +3508,7 @@
       <c r="B200" s="2">
         <v>18.0</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C200" s="5">
         <v>0.076</v>
       </c>
     </row>
@@ -3732,7 +3516,7 @@
       <c r="B201" s="2">
         <v>19.0</v>
       </c>
-      <c r="C201" s="5">
+      <c r="C201" s="4">
         <v>0.0096</v>
       </c>
     </row>
@@ -3740,7 +3524,7 @@
       <c r="B202" s="2">
         <v>19.0</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -3748,7 +3532,7 @@
       <c r="B203" s="2">
         <v>19.0</v>
       </c>
-      <c r="C203" s="7">
+      <c r="C203" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -3756,7 +3540,7 @@
       <c r="B204" s="2">
         <v>19.0</v>
       </c>
-      <c r="C204" s="7">
+      <c r="C204" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -3764,7 +3548,7 @@
       <c r="B205" s="2">
         <v>19.0</v>
       </c>
-      <c r="C205" s="7">
+      <c r="C205" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -3772,7 +3556,7 @@
       <c r="B206" s="2">
         <v>19.0</v>
       </c>
-      <c r="C206" s="7">
+      <c r="C206" s="5">
         <v>0.01</v>
       </c>
     </row>
@@ -3780,7 +3564,7 @@
       <c r="B207" s="2">
         <v>19.0</v>
       </c>
-      <c r="C207" s="7">
+      <c r="C207" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -3788,7 +3572,7 @@
       <c r="B208" s="2">
         <v>19.0</v>
       </c>
-      <c r="C208" s="7">
+      <c r="C208" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -3796,7 +3580,7 @@
       <c r="B209" s="2">
         <v>19.0</v>
       </c>
-      <c r="C209" s="7">
+      <c r="C209" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -3804,7 +3588,7 @@
       <c r="B210" s="2">
         <v>19.0</v>
       </c>
-      <c r="C210" s="7">
+      <c r="C210" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -3812,7 +3596,7 @@
       <c r="B211" s="2">
         <v>19.0</v>
       </c>
-      <c r="C211" s="7">
+      <c r="C211" s="5">
         <v>0.01</v>
       </c>
     </row>
@@ -3820,7 +3604,7 @@
       <c r="B212" s="2">
         <v>20.0</v>
       </c>
-      <c r="C212" s="5">
+      <c r="C212" s="4">
         <v>0.0116</v>
       </c>
     </row>
@@ -3828,7 +3612,7 @@
       <c r="B213" s="2">
         <v>20.0</v>
       </c>
-      <c r="C213" s="7">
+      <c r="C213" s="5">
         <v>0.0156</v>
       </c>
     </row>
@@ -3836,7 +3620,7 @@
       <c r="B214" s="2">
         <v>20.0</v>
       </c>
-      <c r="C214" s="7">
+      <c r="C214" s="5">
         <v>0.0135</v>
       </c>
     </row>
@@ -3844,7 +3628,7 @@
       <c r="B215" s="2">
         <v>20.0</v>
       </c>
-      <c r="C215" s="7">
+      <c r="C215" s="5">
         <v>0.0166</v>
       </c>
     </row>
@@ -3852,7 +3636,7 @@
       <c r="B216" s="2">
         <v>20.0</v>
       </c>
-      <c r="C216" s="7">
+      <c r="C216" s="5">
         <v>0.0137</v>
       </c>
     </row>
@@ -3860,7 +3644,7 @@
       <c r="B217" s="2">
         <v>20.0</v>
       </c>
-      <c r="C217" s="7">
+      <c r="C217" s="5">
         <v>0.0163</v>
       </c>
     </row>
@@ -3868,7 +3652,7 @@
       <c r="B218" s="2">
         <v>20.0</v>
       </c>
-      <c r="C218" s="7">
+      <c r="C218" s="5">
         <v>0.0121</v>
       </c>
     </row>
@@ -3876,7 +3660,7 @@
       <c r="B219" s="2">
         <v>20.0</v>
       </c>
-      <c r="C219" s="7">
+      <c r="C219" s="5">
         <v>0.0121</v>
       </c>
     </row>
@@ -3884,7 +3668,7 @@
       <c r="B220" s="2">
         <v>20.0</v>
       </c>
-      <c r="C220" s="7">
+      <c r="C220" s="5">
         <v>0.0143</v>
       </c>
     </row>
@@ -3892,7 +3676,7 @@
       <c r="B221" s="2">
         <v>20.0</v>
       </c>
-      <c r="C221" s="7">
+      <c r="C221" s="5">
         <v>0.0114</v>
       </c>
     </row>
@@ -3900,7 +3684,7 @@
       <c r="B222" s="2">
         <v>20.0</v>
       </c>
-      <c r="C222" s="7">
+      <c r="C222" s="5">
         <v>0.0125</v>
       </c>
     </row>
@@ -3908,7 +3692,7 @@
       <c r="B223" s="2">
         <v>21.0</v>
       </c>
-      <c r="C223" s="5">
+      <c r="C223" s="4">
         <v>0.0073</v>
       </c>
     </row>
@@ -3916,7 +3700,7 @@
       <c r="B224" s="2">
         <v>21.0</v>
       </c>
-      <c r="C224" s="7">
+      <c r="C224" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -3924,7 +3708,7 @@
       <c r="B225" s="2">
         <v>21.0</v>
       </c>
-      <c r="C225" s="7">
+      <c r="C225" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3932,7 +3716,7 @@
       <c r="B226" s="2">
         <v>21.0</v>
       </c>
-      <c r="C226" s="7">
+      <c r="C226" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3940,7 +3724,7 @@
       <c r="B227" s="2">
         <v>21.0</v>
       </c>
-      <c r="C227" s="7">
+      <c r="C227" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3948,7 +3732,7 @@
       <c r="B228" s="2">
         <v>21.0</v>
       </c>
-      <c r="C228" s="7">
+      <c r="C228" s="5">
         <v>0.011</v>
       </c>
     </row>
@@ -3956,7 +3740,7 @@
       <c r="B229" s="2">
         <v>21.0</v>
       </c>
-      <c r="C229" s="7">
+      <c r="C229" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3964,7 +3748,7 @@
       <c r="B230" s="2">
         <v>21.0</v>
       </c>
-      <c r="C230" s="7">
+      <c r="C230" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -3972,7 +3756,7 @@
       <c r="B231" s="2">
         <v>21.0</v>
       </c>
-      <c r="C231" s="7">
+      <c r="C231" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3980,7 +3764,7 @@
       <c r="B232" s="2">
         <v>21.0</v>
       </c>
-      <c r="C232" s="7">
+      <c r="C232" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3988,7 +3772,7 @@
       <c r="B233" s="2">
         <v>21.0</v>
       </c>
-      <c r="C233" s="7">
+      <c r="C233" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -3996,7 +3780,7 @@
       <c r="B234" s="2">
         <v>22.0</v>
       </c>
-      <c r="C234" s="5">
+      <c r="C234" s="4">
         <v>0.009</v>
       </c>
     </row>
@@ -4004,7 +3788,7 @@
       <c r="B235" s="2">
         <v>22.0</v>
       </c>
-      <c r="C235" s="7">
+      <c r="C235" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -4012,7 +3796,7 @@
       <c r="B236" s="2">
         <v>22.0</v>
       </c>
-      <c r="C236" s="7">
+      <c r="C236" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -4020,7 +3804,7 @@
       <c r="B237" s="2">
         <v>22.0</v>
       </c>
-      <c r="C237" s="7">
+      <c r="C237" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -4028,7 +3812,7 @@
       <c r="B238" s="2">
         <v>22.0</v>
       </c>
-      <c r="C238" s="7">
+      <c r="C238" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -4036,7 +3820,7 @@
       <c r="B239" s="2">
         <v>22.0</v>
       </c>
-      <c r="C239" s="7">
+      <c r="C239" s="5">
         <v>0.011</v>
       </c>
     </row>
@@ -4044,7 +3828,7 @@
       <c r="B240" s="2">
         <v>22.0</v>
       </c>
-      <c r="C240" s="7">
+      <c r="C240" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -4052,7 +3836,7 @@
       <c r="B241" s="2">
         <v>22.0</v>
       </c>
-      <c r="C241" s="7">
+      <c r="C241" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -4060,7 +3844,7 @@
       <c r="B242" s="2">
         <v>22.0</v>
       </c>
-      <c r="C242" s="7">
+      <c r="C242" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -4068,7 +3852,7 @@
       <c r="B243" s="2">
         <v>22.0</v>
       </c>
-      <c r="C243" s="7">
+      <c r="C243" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -4076,7 +3860,7 @@
       <c r="B244" s="2">
         <v>22.0</v>
       </c>
-      <c r="C244" s="7">
+      <c r="C244" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -4084,7 +3868,7 @@
       <c r="B245" s="2">
         <v>23.0</v>
       </c>
-      <c r="C245" s="5">
+      <c r="C245" s="4">
         <v>1.1873</v>
       </c>
     </row>
@@ -4092,7 +3876,7 @@
       <c r="B246" s="2">
         <v>23.0</v>
       </c>
-      <c r="C246" s="7">
+      <c r="C246" s="5">
         <v>1.275</v>
       </c>
     </row>
@@ -4100,7 +3884,7 @@
       <c r="B247" s="2">
         <v>23.0</v>
       </c>
-      <c r="C247" s="7">
+      <c r="C247" s="5">
         <v>1.201</v>
       </c>
     </row>
@@ -4108,7 +3892,7 @@
       <c r="B248" s="2">
         <v>23.0</v>
       </c>
-      <c r="C248" s="7">
+      <c r="C248" s="5">
         <v>1.237</v>
       </c>
     </row>
@@ -4116,7 +3900,7 @@
       <c r="B249" s="2">
         <v>23.0</v>
       </c>
-      <c r="C249" s="7">
+      <c r="C249" s="5">
         <v>1.266</v>
       </c>
     </row>
@@ -4124,7 +3908,7 @@
       <c r="B250" s="2">
         <v>23.0</v>
       </c>
-      <c r="C250" s="7">
+      <c r="C250" s="5">
         <v>1.29</v>
       </c>
     </row>
@@ -4132,7 +3916,7 @@
       <c r="B251" s="2">
         <v>23.0</v>
       </c>
-      <c r="C251" s="7">
+      <c r="C251" s="5">
         <v>1.139</v>
       </c>
     </row>
@@ -4140,7 +3924,7 @@
       <c r="B252" s="2">
         <v>23.0</v>
       </c>
-      <c r="C252" s="7">
+      <c r="C252" s="5">
         <v>1.273</v>
       </c>
     </row>
@@ -4148,7 +3932,7 @@
       <c r="B253" s="2">
         <v>23.0</v>
       </c>
-      <c r="C253" s="7">
+      <c r="C253" s="5">
         <v>1.206</v>
       </c>
     </row>
@@ -4156,7 +3940,7 @@
       <c r="B254" s="2">
         <v>23.0</v>
       </c>
-      <c r="C254" s="7">
+      <c r="C254" s="5">
         <v>1.343</v>
       </c>
     </row>
@@ -4164,7 +3948,7 @@
       <c r="B255" s="2">
         <v>23.0</v>
       </c>
-      <c r="C255" s="7">
+      <c r="C255" s="5">
         <v>1.24</v>
       </c>
     </row>
@@ -4172,7 +3956,7 @@
       <c r="B256" s="2">
         <v>24.0</v>
       </c>
-      <c r="C256" s="5">
+      <c r="C256" s="4">
         <v>1.0272</v>
       </c>
     </row>
@@ -4180,7 +3964,7 @@
       <c r="B257" s="2">
         <v>24.0</v>
       </c>
-      <c r="C257" s="7">
+      <c r="C257" s="5">
         <v>1.043</v>
       </c>
     </row>
@@ -4188,7 +3972,7 @@
       <c r="B258" s="2">
         <v>24.0</v>
       </c>
-      <c r="C258" s="7">
+      <c r="C258" s="5">
         <v>1.081</v>
       </c>
     </row>
@@ -4196,7 +3980,7 @@
       <c r="B259" s="2">
         <v>24.0</v>
       </c>
-      <c r="C259" s="7">
+      <c r="C259" s="5">
         <v>1.0674</v>
       </c>
     </row>
@@ -4204,7 +3988,7 @@
       <c r="B260" s="2">
         <v>24.0</v>
       </c>
-      <c r="C260" s="7">
+      <c r="C260" s="5">
         <v>1.046</v>
       </c>
     </row>
@@ -4212,7 +3996,7 @@
       <c r="B261" s="2">
         <v>24.0</v>
       </c>
-      <c r="C261" s="7">
+      <c r="C261" s="5">
         <v>1.0167</v>
       </c>
     </row>
@@ -4220,7 +4004,7 @@
       <c r="B262" s="2">
         <v>24.0</v>
       </c>
-      <c r="C262" s="7">
+      <c r="C262" s="5">
         <v>1.024</v>
       </c>
     </row>
@@ -4228,7 +4012,7 @@
       <c r="B263" s="2">
         <v>24.0</v>
       </c>
-      <c r="C263" s="7">
+      <c r="C263" s="5">
         <v>1.027</v>
       </c>
     </row>
@@ -4236,7 +4020,7 @@
       <c r="B264" s="2">
         <v>24.0</v>
       </c>
-      <c r="C264" s="7">
+      <c r="C264" s="5">
         <v>1.061</v>
       </c>
     </row>
@@ -4244,7 +4028,7 @@
       <c r="B265" s="2">
         <v>24.0</v>
       </c>
-      <c r="C265" s="7">
+      <c r="C265" s="5">
         <v>1.093</v>
       </c>
     </row>
@@ -4252,7 +4036,7 @@
       <c r="B266" s="2">
         <v>24.0</v>
       </c>
-      <c r="C266" s="7">
+      <c r="C266" s="5">
         <v>1.0549</v>
       </c>
     </row>
@@ -4260,7 +4044,7 @@
       <c r="B267" s="2">
         <v>25.0</v>
       </c>
-      <c r="C267" s="5">
+      <c r="C267" s="4">
         <v>0.357</v>
       </c>
     </row>
@@ -4268,7 +4052,7 @@
       <c r="B268" s="2">
         <v>25.0</v>
       </c>
-      <c r="C268" s="7">
+      <c r="C268" s="5">
         <v>0.423</v>
       </c>
     </row>
@@ -4276,7 +4060,7 @@
       <c r="B269" s="2">
         <v>25.0</v>
       </c>
-      <c r="C269" s="7">
+      <c r="C269" s="5">
         <v>0.41</v>
       </c>
     </row>
@@ -4284,7 +4068,7 @@
       <c r="B270" s="2">
         <v>25.0</v>
       </c>
-      <c r="C270" s="7">
+      <c r="C270" s="5">
         <v>0.365</v>
       </c>
     </row>
@@ -4292,7 +4076,7 @@
       <c r="B271" s="2">
         <v>25.0</v>
       </c>
-      <c r="C271" s="7">
+      <c r="C271" s="5">
         <v>0.459</v>
       </c>
     </row>
@@ -4300,7 +4084,7 @@
       <c r="B272" s="2">
         <v>25.0</v>
       </c>
-      <c r="C272" s="7">
+      <c r="C272" s="5">
         <v>0.41</v>
       </c>
     </row>
@@ -4308,7 +4092,7 @@
       <c r="B273" s="2">
         <v>25.0</v>
       </c>
-      <c r="C273" s="7">
+      <c r="C273" s="5">
         <v>0.402</v>
       </c>
     </row>
@@ -4316,7 +4100,7 @@
       <c r="B274" s="2">
         <v>25.0</v>
       </c>
-      <c r="C274" s="7">
+      <c r="C274" s="5">
         <v>0.398</v>
       </c>
     </row>
@@ -4324,7 +4108,7 @@
       <c r="B275" s="2">
         <v>25.0</v>
       </c>
-      <c r="C275" s="7">
+      <c r="C275" s="5">
         <v>0.407</v>
       </c>
     </row>
@@ -4332,7 +4116,7 @@
       <c r="B276" s="2">
         <v>25.0</v>
       </c>
-      <c r="C276" s="7">
+      <c r="C276" s="5">
         <v>0.357</v>
       </c>
     </row>
@@ -4340,7 +4124,7 @@
       <c r="B277" s="2">
         <v>25.0</v>
       </c>
-      <c r="C277" s="7">
+      <c r="C277" s="5">
         <v>0.389</v>
       </c>
     </row>
@@ -4348,7 +4132,7 @@
       <c r="B278" s="2">
         <v>26.0</v>
       </c>
-      <c r="C278" s="5">
+      <c r="C278" s="4">
         <v>0.1709</v>
       </c>
     </row>
@@ -4356,7 +4140,7 @@
       <c r="B279" s="2">
         <v>26.0</v>
       </c>
-      <c r="C279" s="7">
+      <c r="C279" s="5">
         <v>0.249</v>
       </c>
     </row>
@@ -4364,7 +4148,7 @@
       <c r="B280" s="2">
         <v>26.0</v>
       </c>
-      <c r="C280" s="7">
+      <c r="C280" s="5">
         <v>0.312</v>
       </c>
     </row>
@@ -4372,7 +4156,7 @@
       <c r="B281" s="2">
         <v>26.0</v>
       </c>
-      <c r="C281" s="7">
+      <c r="C281" s="5">
         <v>0.28</v>
       </c>
     </row>
@@ -4380,7 +4164,7 @@
       <c r="B282" s="2">
         <v>26.0</v>
       </c>
-      <c r="C282" s="7">
+      <c r="C282" s="5">
         <v>0.34</v>
       </c>
     </row>
@@ -4388,7 +4172,7 @@
       <c r="B283" s="2">
         <v>26.0</v>
       </c>
-      <c r="C283" s="7">
+      <c r="C283" s="5">
         <v>0.27</v>
       </c>
     </row>
@@ -4396,7 +4180,7 @@
       <c r="B284" s="2">
         <v>26.0</v>
       </c>
-      <c r="C284" s="7">
+      <c r="C284" s="5">
         <v>0.31</v>
       </c>
     </row>
@@ -4404,7 +4188,7 @@
       <c r="B285" s="2">
         <v>26.0</v>
       </c>
-      <c r="C285" s="7">
+      <c r="C285" s="5">
         <v>0.51</v>
       </c>
     </row>
@@ -4412,7 +4196,7 @@
       <c r="B286" s="2">
         <v>26.0</v>
       </c>
-      <c r="C286" s="7">
+      <c r="C286" s="5">
         <v>0.39</v>
       </c>
     </row>
@@ -4420,7 +4204,7 @@
       <c r="B287" s="2">
         <v>26.0</v>
       </c>
-      <c r="C287" s="7">
+      <c r="C287" s="5">
         <v>0.267</v>
       </c>
     </row>
@@ -4428,7 +4212,7 @@
       <c r="B288" s="2">
         <v>26.0</v>
       </c>
-      <c r="C288" s="7">
+      <c r="C288" s="5">
         <v>0.319</v>
       </c>
     </row>
@@ -4436,7 +4220,7 @@
       <c r="B289" s="2">
         <v>27.0</v>
       </c>
-      <c r="C289" s="5">
+      <c r="C289" s="4">
         <v>0.376</v>
       </c>
     </row>
@@ -4444,7 +4228,7 @@
       <c r="B290" s="2">
         <v>27.0</v>
       </c>
-      <c r="C290" s="7">
+      <c r="C290" s="5">
         <v>0.39</v>
       </c>
     </row>
@@ -4452,7 +4236,7 @@
       <c r="B291" s="2">
         <v>27.0</v>
       </c>
-      <c r="C291" s="7">
+      <c r="C291" s="5">
         <v>0.409</v>
       </c>
     </row>
@@ -4460,7 +4244,7 @@
       <c r="B292" s="2">
         <v>27.0</v>
       </c>
-      <c r="C292" s="7">
+      <c r="C292" s="5">
         <v>0.35</v>
       </c>
     </row>
@@ -4468,7 +4252,7 @@
       <c r="B293" s="2">
         <v>27.0</v>
       </c>
-      <c r="C293" s="7">
+      <c r="C293" s="5">
         <v>0.466</v>
       </c>
     </row>
@@ -4476,7 +4260,7 @@
       <c r="B294" s="2">
         <v>27.0</v>
       </c>
-      <c r="C294" s="7">
+      <c r="C294" s="5">
         <v>0.421</v>
       </c>
     </row>
@@ -4484,7 +4268,7 @@
       <c r="B295" s="2">
         <v>27.0</v>
       </c>
-      <c r="C295" s="7">
+      <c r="C295" s="5">
         <v>0.402</v>
       </c>
     </row>
@@ -4492,7 +4276,7 @@
       <c r="B296" s="2">
         <v>27.0</v>
       </c>
-      <c r="C296" s="7">
+      <c r="C296" s="5">
         <v>0.419</v>
       </c>
     </row>
@@ -4500,7 +4284,7 @@
       <c r="B297" s="2">
         <v>27.0</v>
       </c>
-      <c r="C297" s="7">
+      <c r="C297" s="5">
         <v>0.399</v>
       </c>
     </row>
@@ -4508,7 +4292,7 @@
       <c r="B298" s="2">
         <v>27.0</v>
       </c>
-      <c r="C298" s="7">
+      <c r="C298" s="5">
         <v>0.422</v>
       </c>
     </row>
@@ -4516,7 +4300,7 @@
       <c r="B299" s="2">
         <v>27.0</v>
       </c>
-      <c r="C299" s="7">
+      <c r="C299" s="5">
         <v>0.391</v>
       </c>
     </row>
@@ -4524,7 +4308,7 @@
       <c r="B300" s="2">
         <v>28.0</v>
       </c>
-      <c r="C300" s="5">
+      <c r="C300" s="4">
         <v>0.1731</v>
       </c>
     </row>
@@ -4532,7 +4316,7 @@
       <c r="B301" s="2">
         <v>28.0</v>
       </c>
-      <c r="C301" s="7">
+      <c r="C301" s="5">
         <v>0.1732</v>
       </c>
     </row>
@@ -4540,7 +4324,7 @@
       <c r="B302" s="2">
         <v>28.0</v>
       </c>
-      <c r="C302" s="7">
+      <c r="C302" s="5">
         <v>0.1731</v>
       </c>
     </row>
@@ -4548,7 +4332,7 @@
       <c r="B303" s="2">
         <v>28.0</v>
       </c>
-      <c r="C303" s="7">
+      <c r="C303" s="5">
         <v>0.1733</v>
       </c>
     </row>
@@ -4556,7 +4340,7 @@
       <c r="B304" s="2">
         <v>28.0</v>
       </c>
-      <c r="C304" s="7">
+      <c r="C304" s="5">
         <v>0.1736</v>
       </c>
     </row>
@@ -4564,7 +4348,7 @@
       <c r="B305" s="2">
         <v>28.0</v>
       </c>
-      <c r="C305" s="7">
+      <c r="C305" s="5">
         <v>0.1735</v>
       </c>
     </row>
@@ -4572,7 +4356,7 @@
       <c r="B306" s="2">
         <v>28.0</v>
       </c>
-      <c r="C306" s="7">
+      <c r="C306" s="5">
         <v>0.1732</v>
       </c>
     </row>
@@ -4580,7 +4364,7 @@
       <c r="B307" s="2">
         <v>28.0</v>
       </c>
-      <c r="C307" s="7">
+      <c r="C307" s="5">
         <v>0.1732</v>
       </c>
     </row>
@@ -4588,7 +4372,7 @@
       <c r="B308" s="2">
         <v>28.0</v>
       </c>
-      <c r="C308" s="7">
+      <c r="C308" s="5">
         <v>0.1735</v>
       </c>
     </row>
@@ -4596,7 +4380,7 @@
       <c r="B309" s="2">
         <v>28.0</v>
       </c>
-      <c r="C309" s="7">
+      <c r="C309" s="5">
         <v>0.1735</v>
       </c>
     </row>
@@ -4604,7 +4388,7 @@
       <c r="B310" s="2">
         <v>28.0</v>
       </c>
-      <c r="C310" s="7">
+      <c r="C310" s="5">
         <v>0.1732</v>
       </c>
     </row>
@@ -4612,7 +4396,7 @@
       <c r="B311" s="2">
         <v>29.0</v>
       </c>
-      <c r="C311" s="5">
+      <c r="C311" s="4">
         <v>57.684</v>
       </c>
     </row>
@@ -4620,7 +4404,7 @@
       <c r="B312" s="2">
         <v>29.0</v>
       </c>
-      <c r="C312" s="7">
+      <c r="C312" s="5">
         <v>61.514</v>
       </c>
     </row>
@@ -4628,7 +4412,7 @@
       <c r="B313" s="2">
         <v>29.0</v>
       </c>
-      <c r="C313" s="7">
+      <c r="C313" s="5">
         <v>55.98</v>
       </c>
     </row>
@@ -4636,7 +4420,7 @@
       <c r="B314" s="2">
         <v>29.0</v>
       </c>
-      <c r="C314" s="7">
+      <c r="C314" s="5">
         <v>59.96</v>
       </c>
     </row>
@@ -4644,7 +4428,7 @@
       <c r="B315" s="2">
         <v>29.0</v>
       </c>
-      <c r="C315" s="7">
+      <c r="C315" s="5">
         <v>60.988</v>
       </c>
     </row>
@@ -4652,7 +4436,7 @@
       <c r="B316" s="2">
         <v>29.0</v>
       </c>
-      <c r="C316" s="7">
+      <c r="C316" s="5">
         <v>57.652</v>
       </c>
     </row>
@@ -4660,7 +4444,7 @@
       <c r="B317" s="2">
         <v>29.0</v>
       </c>
-      <c r="C317" s="7">
+      <c r="C317" s="5">
         <v>53.797</v>
       </c>
     </row>
@@ -4668,7 +4452,7 @@
       <c r="B318" s="2">
         <v>29.0</v>
       </c>
-      <c r="C318" s="7">
+      <c r="C318" s="5">
         <v>58.634</v>
       </c>
     </row>
@@ -4676,7 +4460,7 @@
       <c r="B319" s="2">
         <v>29.0</v>
       </c>
-      <c r="C319" s="7">
+      <c r="C319" s="5">
         <v>57.224</v>
       </c>
     </row>
@@ -4684,7 +4468,7 @@
       <c r="B320" s="2">
         <v>29.0</v>
       </c>
-      <c r="C320" s="7">
+      <c r="C320" s="5">
         <v>59.106</v>
       </c>
     </row>
@@ -4692,7 +4476,7 @@
       <c r="B321" s="2">
         <v>29.0</v>
       </c>
-      <c r="C321" s="7">
+      <c r="C321" s="5">
         <v>58.547</v>
       </c>
     </row>
@@ -4700,7 +4484,7 @@
       <c r="B322" s="2">
         <v>30.0</v>
       </c>
-      <c r="C322" s="5">
+      <c r="C322" s="4">
         <v>27.5879</v>
       </c>
     </row>
@@ -4708,7 +4492,7 @@
       <c r="B323" s="2">
         <v>30.0</v>
       </c>
-      <c r="C323" s="5">
+      <c r="C323" s="4">
         <v>27.5823</v>
       </c>
     </row>
@@ -4716,7 +4500,7 @@
       <c r="B324" s="2">
         <v>30.0</v>
       </c>
-      <c r="C324" s="5">
+      <c r="C324" s="4">
         <v>27.5722</v>
       </c>
     </row>
@@ -4724,7 +4508,7 @@
       <c r="B325" s="2">
         <v>30.0</v>
       </c>
-      <c r="C325" s="5">
+      <c r="C325" s="4">
         <v>27.5265</v>
       </c>
     </row>
@@ -4732,7 +4516,7 @@
       <c r="B326" s="2">
         <v>30.0</v>
       </c>
-      <c r="C326" s="5">
+      <c r="C326" s="4">
         <v>27.5845</v>
       </c>
     </row>
@@ -4740,7 +4524,7 @@
       <c r="B327" s="2">
         <v>30.0</v>
       </c>
-      <c r="C327" s="5">
+      <c r="C327" s="4">
         <v>27.5235</v>
       </c>
     </row>
@@ -4748,7 +4532,7 @@
       <c r="B328" s="2">
         <v>30.0</v>
       </c>
-      <c r="C328" s="5">
+      <c r="C328" s="4">
         <v>27.3656</v>
       </c>
     </row>
@@ -4756,7 +4540,7 @@
       <c r="B329" s="2">
         <v>30.0</v>
       </c>
-      <c r="C329" s="5">
+      <c r="C329" s="4">
         <v>27.8963</v>
       </c>
     </row>
@@ -4764,7 +4548,7 @@
       <c r="B330" s="2">
         <v>30.0</v>
       </c>
-      <c r="C330" s="5">
+      <c r="C330" s="4">
         <v>27.5689</v>
       </c>
     </row>
@@ -4772,7 +4556,7 @@
       <c r="B331" s="2">
         <v>30.0</v>
       </c>
-      <c r="C331" s="5">
+      <c r="C331" s="4">
         <v>27.3265</v>
       </c>
     </row>
@@ -4780,7 +4564,7 @@
       <c r="B332" s="2">
         <v>30.0</v>
       </c>
-      <c r="C332" s="5">
+      <c r="C332" s="4">
         <v>27.5812</v>
       </c>
     </row>
@@ -4788,7 +4572,7 @@
       <c r="B333" s="2">
         <v>31.0</v>
       </c>
-      <c r="C333" s="5">
+      <c r="C333" s="4">
         <v>0.008</v>
       </c>
     </row>
@@ -4796,7 +4580,7 @@
       <c r="B334" s="2">
         <v>31.0</v>
       </c>
-      <c r="C334" s="7">
+      <c r="C334" s="5">
         <v>0.012</v>
       </c>
     </row>
@@ -4804,7 +4588,7 @@
       <c r="B335" s="2">
         <v>31.0</v>
       </c>
-      <c r="C335" s="7">
+      <c r="C335" s="5">
         <v>0.007</v>
       </c>
     </row>
@@ -4812,7 +4596,7 @@
       <c r="B336" s="2">
         <v>31.0</v>
       </c>
-      <c r="C336" s="7">
+      <c r="C336" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -4820,7 +4604,7 @@
       <c r="B337" s="2">
         <v>31.0</v>
       </c>
-      <c r="C337" s="7">
+      <c r="C337" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -4828,7 +4612,7 @@
       <c r="B338" s="2">
         <v>31.0</v>
       </c>
-      <c r="C338" s="7">
+      <c r="C338" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -4836,7 +4620,7 @@
       <c r="B339" s="2">
         <v>31.0</v>
       </c>
-      <c r="C339" s="7">
+      <c r="C339" s="5">
         <v>0.008</v>
       </c>
     </row>
@@ -4844,7 +4628,7 @@
       <c r="B340" s="2">
         <v>31.0</v>
       </c>
-      <c r="C340" s="7">
+      <c r="C340" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -4852,7 +4636,7 @@
       <c r="B341" s="2">
         <v>31.0</v>
       </c>
-      <c r="C341" s="7">
+      <c r="C341" s="5">
         <v>0.016</v>
       </c>
     </row>
@@ -4860,7 +4644,7 @@
       <c r="B342" s="2">
         <v>31.0</v>
       </c>
-      <c r="C342" s="7">
+      <c r="C342" s="5">
         <v>0.018</v>
       </c>
     </row>
@@ -4868,7 +4652,7 @@
       <c r="B343" s="2">
         <v>31.0</v>
       </c>
-      <c r="C343" s="7">
+      <c r="C343" s="5">
         <v>0.009</v>
       </c>
     </row>
@@ -4876,7 +4660,7 @@
       <c r="B344" s="2">
         <v>32.0</v>
       </c>
-      <c r="C344" s="5">
+      <c r="C344" s="4">
         <v>0.0033</v>
       </c>
     </row>
@@ -4884,7 +4668,7 @@
       <c r="B345" s="2">
         <v>32.0</v>
       </c>
-      <c r="C345" s="5">
+      <c r="C345" s="4">
         <v>0.0025</v>
       </c>
     </row>
@@ -4892,7 +4676,7 @@
       <c r="B346" s="2">
         <v>32.0</v>
       </c>
-      <c r="C346" s="5">
+      <c r="C346" s="4">
         <v>0.0036</v>
       </c>
     </row>
@@ -4900,7 +4684,7 @@
       <c r="B347" s="2">
         <v>32.0</v>
       </c>
-      <c r="C347" s="5">
+      <c r="C347" s="4">
         <v>0.0056</v>
       </c>
     </row>
@@ -4908,7 +4692,7 @@
       <c r="B348" s="2">
         <v>32.0</v>
       </c>
-      <c r="C348" s="5">
+      <c r="C348" s="4">
         <v>0.0094</v>
       </c>
     </row>
@@ -4916,7 +4700,7 @@
       <c r="B349" s="2">
         <v>32.0</v>
       </c>
-      <c r="C349" s="5">
+      <c r="C349" s="4">
         <v>0.0021</v>
       </c>
     </row>
@@ -4924,7 +4708,7 @@
       <c r="B350" s="2">
         <v>32.0</v>
       </c>
-      <c r="C350" s="5">
+      <c r="C350" s="4">
         <v>0.0035</v>
       </c>
     </row>
@@ -4932,7 +4716,7 @@
       <c r="B351" s="2">
         <v>32.0</v>
       </c>
-      <c r="C351" s="5">
+      <c r="C351" s="4">
         <v>0.0036</v>
       </c>
     </row>
@@ -4940,7 +4724,7 @@
       <c r="B352" s="2">
         <v>32.0</v>
       </c>
-      <c r="C352" s="5">
+      <c r="C352" s="4">
         <v>0.0032</v>
       </c>
     </row>
@@ -4948,7 +4732,7 @@
       <c r="B353" s="2">
         <v>32.0</v>
       </c>
-      <c r="C353" s="5">
+      <c r="C353" s="4">
         <v>0.0054</v>
       </c>
     </row>
@@ -4956,7 +4740,7 @@
       <c r="B354" s="2">
         <v>32.0</v>
       </c>
-      <c r="C354" s="5">
+      <c r="C354" s="4">
         <v>0.0065</v>
       </c>
     </row>
@@ -4964,7 +4748,7 @@
       <c r="B355" s="2">
         <v>33.0</v>
       </c>
-      <c r="C355" s="5">
+      <c r="C355" s="4">
         <v>0.0113</v>
       </c>
     </row>
@@ -4972,7 +4756,7 @@
       <c r="B356" s="2">
         <v>33.0</v>
       </c>
-      <c r="C356" s="7">
+      <c r="C356" s="5">
         <v>0.0226</v>
       </c>
     </row>
@@ -4980,7 +4764,7 @@
       <c r="B357" s="2">
         <v>33.0</v>
       </c>
-      <c r="C357" s="7">
+      <c r="C357" s="5">
         <v>0.0184</v>
       </c>
     </row>
@@ -4988,7 +4772,7 @@
       <c r="B358" s="2">
         <v>33.0</v>
       </c>
-      <c r="C358" s="7">
+      <c r="C358" s="5">
         <v>0.0154</v>
       </c>
     </row>
@@ -4996,7 +4780,7 @@
       <c r="B359" s="2">
         <v>33.0</v>
       </c>
-      <c r="C359" s="7">
+      <c r="C359" s="5">
         <v>0.0192</v>
       </c>
     </row>
@@ -5004,7 +4788,7 @@
       <c r="B360" s="2">
         <v>33.0</v>
       </c>
-      <c r="C360" s="7">
+      <c r="C360" s="5">
         <v>0.012</v>
       </c>
     </row>
@@ -5012,7 +4796,7 @@
       <c r="B361" s="2">
         <v>33.0</v>
       </c>
-      <c r="C361" s="7">
+      <c r="C361" s="5">
         <v>0.0147</v>
       </c>
     </row>
@@ -5020,7 +4804,7 @@
       <c r="B362" s="2">
         <v>33.0</v>
       </c>
-      <c r="C362" s="7">
+      <c r="C362" s="5">
         <v>0.0159</v>
       </c>
     </row>
@@ -5028,7 +4812,7 @@
       <c r="B363" s="2">
         <v>33.0</v>
       </c>
-      <c r="C363" s="7">
+      <c r="C363" s="5">
         <v>0.0101</v>
       </c>
     </row>
@@ -5036,7 +4820,7 @@
       <c r="B364" s="2">
         <v>33.0</v>
       </c>
-      <c r="C364" s="7">
+      <c r="C364" s="5">
         <v>0.0164</v>
       </c>
     </row>
@@ -5044,7 +4828,7 @@
       <c r="B365" s="2">
         <v>33.0</v>
       </c>
-      <c r="C365" s="7">
+      <c r="C365" s="5">
         <v>0.0159</v>
       </c>
     </row>
@@ -5052,7 +4836,7 @@
       <c r="B366" s="2">
         <v>34.0</v>
       </c>
-      <c r="C366" s="5">
+      <c r="C366" s="4">
         <v>0.0173</v>
       </c>
     </row>
@@ -5060,7 +4844,7 @@
       <c r="B367" s="2">
         <v>34.0</v>
       </c>
-      <c r="C367" s="16">
+      <c r="C367" s="18">
         <v>0.0172</v>
       </c>
     </row>
@@ -5068,7 +4852,7 @@
       <c r="B368" s="2">
         <v>34.0</v>
       </c>
-      <c r="C368" s="16">
+      <c r="C368" s="18">
         <v>0.0176</v>
       </c>
     </row>
@@ -5076,7 +4860,7 @@
       <c r="B369" s="2">
         <v>34.0</v>
       </c>
-      <c r="C369" s="7">
+      <c r="C369" s="5">
         <v>0.0173</v>
       </c>
     </row>
@@ -5084,7 +4868,7 @@
       <c r="B370" s="2">
         <v>34.0</v>
       </c>
-      <c r="C370" s="7">
+      <c r="C370" s="5">
         <v>0.0174</v>
       </c>
     </row>
@@ -5092,7 +4876,7 @@
       <c r="B371" s="2">
         <v>34.0</v>
       </c>
-      <c r="C371" s="7">
+      <c r="C371" s="5">
         <v>0.0173</v>
       </c>
     </row>
@@ -5100,7 +4884,7 @@
       <c r="B372" s="2">
         <v>34.0</v>
       </c>
-      <c r="C372" s="7">
+      <c r="C372" s="5">
         <v>0.0172</v>
       </c>
     </row>
@@ -5108,7 +4892,7 @@
       <c r="B373" s="2">
         <v>34.0</v>
       </c>
-      <c r="C373" s="7">
+      <c r="C373" s="5">
         <v>0.0174</v>
       </c>
     </row>
@@ -5116,7 +4900,7 @@
       <c r="B374" s="2">
         <v>34.0</v>
       </c>
-      <c r="C374" s="7">
+      <c r="C374" s="5">
         <v>0.0173</v>
       </c>
     </row>
@@ -5124,7 +4908,7 @@
       <c r="B375" s="2">
         <v>34.0</v>
       </c>
-      <c r="C375" s="7">
+      <c r="C375" s="5">
         <v>0.0172</v>
       </c>
     </row>
@@ -5132,7 +4916,7 @@
       <c r="B376" s="2">
         <v>34.0</v>
       </c>
-      <c r="C376" s="7">
+      <c r="C376" s="5">
         <v>0.0171</v>
       </c>
     </row>
@@ -5140,7 +4924,7 @@
       <c r="B377" s="2">
         <v>35.0</v>
       </c>
-      <c r="C377" s="5">
+      <c r="C377" s="4">
         <v>0.236</v>
       </c>
     </row>
@@ -5148,7 +4932,7 @@
       <c r="B378" s="2">
         <v>35.0</v>
       </c>
-      <c r="C378" s="7">
+      <c r="C378" s="5">
         <v>0.313</v>
       </c>
     </row>
@@ -5156,7 +4940,7 @@
       <c r="B379" s="2">
         <v>35.0</v>
       </c>
-      <c r="C379" s="7">
+      <c r="C379" s="5">
         <v>0.268</v>
       </c>
     </row>
@@ -5164,7 +4948,7 @@
       <c r="B380" s="2">
         <v>35.0</v>
       </c>
-      <c r="C380" s="7">
+      <c r="C380" s="5">
         <v>0.273</v>
       </c>
     </row>
@@ -5172,7 +4956,7 @@
       <c r="B381" s="2">
         <v>35.0</v>
       </c>
-      <c r="C381" s="7">
+      <c r="C381" s="5">
         <v>0.221</v>
       </c>
     </row>
@@ -5180,7 +4964,7 @@
       <c r="B382" s="2">
         <v>35.0</v>
       </c>
-      <c r="C382" s="7">
+      <c r="C382" s="5">
         <v>0.247</v>
       </c>
     </row>
@@ -5188,7 +4972,7 @@
       <c r="B383" s="2">
         <v>35.0</v>
       </c>
-      <c r="C383" s="7">
+      <c r="C383" s="5">
         <v>0.258</v>
       </c>
     </row>
@@ -5196,7 +4980,7 @@
       <c r="B384" s="2">
         <v>35.0</v>
       </c>
-      <c r="C384" s="7">
+      <c r="C384" s="5">
         <v>0.277</v>
       </c>
     </row>
@@ -5204,7 +4988,7 @@
       <c r="B385" s="2">
         <v>35.0</v>
       </c>
-      <c r="C385" s="7">
+      <c r="C385" s="5">
         <v>0.263</v>
       </c>
     </row>
@@ -5212,7 +4996,7 @@
       <c r="B386" s="2">
         <v>35.0</v>
       </c>
-      <c r="C386" s="7">
+      <c r="C386" s="5">
         <v>0.234</v>
       </c>
     </row>
@@ -5220,7 +5004,7 @@
       <c r="B387" s="2">
         <v>35.0</v>
       </c>
-      <c r="C387" s="7">
+      <c r="C387" s="5">
         <v>0.279</v>
       </c>
     </row>
@@ -5228,7 +5012,7 @@
       <c r="B388" s="2">
         <v>36.0</v>
       </c>
-      <c r="C388" s="5">
+      <c r="C388" s="4">
         <v>0.164</v>
       </c>
     </row>
@@ -5236,7 +5020,7 @@
       <c r="B389" s="2">
         <v>36.0</v>
       </c>
-      <c r="C389" s="7">
+      <c r="C389" s="5">
         <v>0.166</v>
       </c>
     </row>
@@ -5244,7 +5028,7 @@
       <c r="B390" s="2">
         <v>36.0</v>
       </c>
-      <c r="C390" s="7">
+      <c r="C390" s="5">
         <v>0.164</v>
       </c>
     </row>
@@ -5252,7 +5036,7 @@
       <c r="B391" s="2">
         <v>36.0</v>
       </c>
-      <c r="C391" s="7">
+      <c r="C391" s="5">
         <v>0.162</v>
       </c>
     </row>
@@ -5260,7 +5044,7 @@
       <c r="B392" s="2">
         <v>36.0</v>
       </c>
-      <c r="C392" s="7">
+      <c r="C392" s="5">
         <v>0.164</v>
       </c>
     </row>
@@ -5268,7 +5052,7 @@
       <c r="B393" s="2">
         <v>36.0</v>
       </c>
-      <c r="C393" s="7">
+      <c r="C393" s="5">
         <v>0.163</v>
       </c>
     </row>
@@ -5276,7 +5060,7 @@
       <c r="B394" s="2">
         <v>36.0</v>
       </c>
-      <c r="C394" s="7">
+      <c r="C394" s="5">
         <v>0.165</v>
       </c>
     </row>
@@ -5284,7 +5068,7 @@
       <c r="B395" s="2">
         <v>36.0</v>
       </c>
-      <c r="C395" s="7">
+      <c r="C395" s="5">
         <v>0.166</v>
       </c>
     </row>
@@ -5292,7 +5076,7 @@
       <c r="B396" s="2">
         <v>36.0</v>
       </c>
-      <c r="C396" s="7">
+      <c r="C396" s="5">
         <v>0.183</v>
       </c>
     </row>
@@ -5300,7 +5084,7 @@
       <c r="B397" s="2">
         <v>36.0</v>
       </c>
-      <c r="C397" s="7">
+      <c r="C397" s="5">
         <v>0.169</v>
       </c>
     </row>
@@ -5308,7 +5092,7 @@
       <c r="B398" s="2">
         <v>36.0</v>
       </c>
-      <c r="C398" s="7">
+      <c r="C398" s="5">
         <v>0.171</v>
       </c>
     </row>
